--- a/data/clean/output_data_with_estimates.xlsx
+++ b/data/clean/output_data_with_estimates.xlsx
@@ -2008,10 +2008,10 @@
         <v>2021</v>
       </c>
       <c r="L11" t="n">
-        <v>4295.1</v>
+        <v>5237.1</v>
       </c>
       <c r="M11" t="n">
-        <v>63665.6</v>
+        <v>51725.4</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
@@ -2469,10 +2469,10 @@
         <v>2021</v>
       </c>
       <c r="L14" t="n">
-        <v>4295.1</v>
+        <v>5237.1</v>
       </c>
       <c r="M14" t="n">
-        <v>63665.6</v>
+        <v>51725.4</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
@@ -3763,23 +3763,23 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.3</v>
+        <v>0.171</v>
       </c>
       <c r="K23" t="n">
         <v>2020</v>
       </c>
       <c r="L23" t="n">
-        <v>1430234</v>
+        <v>2479173</v>
       </c>
       <c r="M23" t="n">
-        <v>1614949</v>
+        <v>2162120.05</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>0.03</v>
+        <v>0.0171</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>0.829523459164192</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="n">
-        <v>2.81</v>
+        <v>2.92</v>
       </c>
       <c r="AU25" t="n">
         <v>0.7297297297297297</v>
@@ -4221,10 +4221,10 @@
         <v>2020</v>
       </c>
       <c r="L26" t="n">
-        <v>1430234</v>
+        <v>2479173</v>
       </c>
       <c r="M26" t="n">
-        <v>1614949</v>
+        <v>2162120.05</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
@@ -9478,7 +9478,9 @@
         <v>72504413</v>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>24722424.4</v>
+      </c>
       <c r="O62" t="n">
         <v>2020</v>
       </c>
@@ -10328,14 +10330,14 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.1</v>
+        <v>0.265</v>
       </c>
       <c r="K68" t="n">
         <v>2020</v>
@@ -10433,7 +10435,7 @@
         </is>
       </c>
       <c r="AL68" t="n">
-        <v>0.01</v>
+        <v>0.0265</v>
       </c>
       <c r="AM68" t="inlineStr">
         <is>
@@ -10461,7 +10463,7 @@
         <v>0.829523459164192</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="AU68" t="n">
         <v>0</v>
@@ -10737,7 +10739,7 @@
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
       <c r="AT70" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="AU70" t="n">
         <v>0.8083163945095891</v>
@@ -11235,10 +11237,10 @@
         <v>2019</v>
       </c>
       <c r="L74" t="n">
-        <v>11816</v>
+        <v>16399</v>
       </c>
       <c r="M74" t="n">
-        <v>88906</v>
+        <v>97112</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="n">
@@ -12526,10 +12528,10 @@
         <v>2020</v>
       </c>
       <c r="L83" t="n">
-        <v>25793</v>
+        <v>25794</v>
       </c>
       <c r="M83" t="n">
-        <v>79790</v>
+        <v>106543</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="n">
@@ -13396,10 +13398,10 @@
         <v>2020</v>
       </c>
       <c r="L89" t="n">
-        <v>25793</v>
+        <v>25794</v>
       </c>
       <c r="M89" t="n">
-        <v>79790</v>
+        <v>106543</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
@@ -13567,10 +13569,10 @@
         <v>2020</v>
       </c>
       <c r="L90" t="n">
-        <v>25793</v>
+        <v>25794</v>
       </c>
       <c r="M90" t="n">
-        <v>79790</v>
+        <v>106543</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
@@ -15182,10 +15184,10 @@
         <v>2019</v>
       </c>
       <c r="L101" t="n">
-        <v>2852457</v>
+        <v>2920571</v>
       </c>
       <c r="M101" t="n">
-        <v>597284</v>
+        <v>533032</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="n">
@@ -16050,10 +16052,10 @@
         <v>2019</v>
       </c>
       <c r="L107" t="n">
-        <v>2852457</v>
+        <v>2920571</v>
       </c>
       <c r="M107" t="n">
-        <v>597284</v>
+        <v>533032</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
@@ -19516,13 +19518,13 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>0.3769707327494125</v>
+        <v>0.376696352841391</v>
       </c>
       <c r="K131" t="n">
         <v>2020</v>
       </c>
       <c r="L131" t="n">
-        <v>7326000</v>
+        <v>7396000</v>
       </c>
       <c r="M131" t="n">
         <v>2036000</v>
@@ -19612,7 +19614,7 @@
         </is>
       </c>
       <c r="AL131" t="n">
-        <v>0.03769707327494125</v>
+        <v>0.0376696352841391</v>
       </c>
       <c r="AM131" t="inlineStr">
         <is>
@@ -20816,7 +20818,7 @@
         <v>5271.27</v>
       </c>
       <c r="M140" t="n">
-        <v>1506687</v>
+        <v>6025.03</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="n">
@@ -32079,10 +32081,10 @@
         <v>2020</v>
       </c>
       <c r="L218" t="n">
-        <v>2246</v>
+        <v>2601</v>
       </c>
       <c r="M218" t="n">
-        <v>21434</v>
+        <v>24176</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="n">
@@ -32937,10 +32939,10 @@
         <v>2020</v>
       </c>
       <c r="L224" t="n">
-        <v>2246</v>
+        <v>2601</v>
       </c>
       <c r="M224" t="n">
-        <v>21434</v>
+        <v>24176</v>
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="n">
@@ -33106,10 +33108,10 @@
         <v>2020</v>
       </c>
       <c r="L225" t="n">
-        <v>2246</v>
+        <v>2601</v>
       </c>
       <c r="M225" t="n">
-        <v>21434</v>
+        <v>24176</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="n">

--- a/data/clean/output_data_with_estimates.xlsx
+++ b/data/clean/output_data_with_estimates.xlsx
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.265</v>
+        <v>0.26</v>
       </c>
       <c r="K68" t="n">
         <v>2020</v>
@@ -10435,7 +10435,7 @@
         </is>
       </c>
       <c r="AL68" t="n">
-        <v>0.0265</v>
+        <v>0.026</v>
       </c>
       <c r="AM68" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>0.829523459164192</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="AU68" t="n">
         <v>0</v>
@@ -10739,7 +10739,7 @@
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
       <c r="AT70" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="AU70" t="n">
         <v>0.8083163945095891</v>

--- a/data/clean/output_data_with_estimates.xlsx
+++ b/data/clean/output_data_with_estimates.xlsx
@@ -22530,17 +22530,35 @@
           <t>Absolute</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2018</v>
+      </c>
+      <c r="L152" t="n">
+        <v>18441041.57</v>
+      </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
+      <c r="O152" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P152" t="n">
+        <v>2050</v>
+      </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr">
         <is>
@@ -22618,7 +22636,9 @@
           <t>Emissions|CO2|Energy and Industrial Processes</t>
         </is>
       </c>
-      <c r="AL152" t="inlineStr"/>
+      <c r="AL152" t="n">
+        <v>0.0296875</v>
+      </c>
       <c r="AM152" t="inlineStr">
         <is>
           <t>slope30</t>
@@ -22645,10 +22665,10 @@
         <v>0.9005513256019539</v>
       </c>
       <c r="AT152" t="n">
-        <v>3.2</v>
+        <v>1.41</v>
       </c>
       <c r="AU152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -22921,10 +22941,10 @@
       <c r="AR154" t="inlineStr"/>
       <c r="AS154" t="inlineStr"/>
       <c r="AT154" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="AU154" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="155">
